--- a/uploads/Script_Data's.xlsx
+++ b/uploads/Script_Data's.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Newdate</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>ABIPRFSCH031</t>
+  </si>
+  <si>
+    <t>ABIPRFSCH032</t>
   </si>
 </sst>
 </file>
@@ -383,7 +386,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
